--- a/sql/cms.xlsx
+++ b/sql/cms.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yves/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yves/java_workspace/ionchain-cms-manager/sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="总表" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="326">
   <si>
     <t>sys_menu</t>
   </si>
@@ -93,13 +93,945 @@
   </si>
   <si>
     <t>create_id</t>
+  </si>
+  <si>
+    <t>sys_config</t>
+  </si>
+  <si>
+    <t>varchar(128)</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>update_id</t>
+  </si>
+  <si>
+    <t>Snapshot on 2018-06-12 13:34:52</t>
+  </si>
+  <si>
+    <t>Database: jfinal_cms</t>
+  </si>
+  <si>
+    <t>sys_department</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+  </si>
+  <si>
+    <t>linkman</t>
+  </si>
+  <si>
+    <t>linkman_no</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>sys_dict</t>
+  </si>
+  <si>
+    <t>dict_id</t>
+  </si>
+  <si>
+    <t>dict_name</t>
+  </si>
+  <si>
+    <t>dict_type</t>
+  </si>
+  <si>
+    <t>dict_remark</t>
+  </si>
+  <si>
+    <t>sys_dict_detail</t>
+  </si>
+  <si>
+    <t>detail_id</t>
+  </si>
+  <si>
+    <t>detail_name</t>
+  </si>
+  <si>
+    <t>detail_code</t>
+  </si>
+  <si>
+    <t>detail_sort</t>
+  </si>
+  <si>
+    <t>detail_type</t>
+  </si>
+  <si>
+    <t>detail_state</t>
+  </si>
+  <si>
+    <t>detail_content</t>
+  </si>
+  <si>
+    <t>detail_remark</t>
+  </si>
+  <si>
+    <t>sys_file_upload</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>varchar(512)</t>
+  </si>
+  <si>
+    <t>factpath</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>originalname</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>business_type</t>
+  </si>
+  <si>
+    <t>sys_log</t>
+  </si>
+  <si>
+    <t>log_type</t>
+  </si>
+  <si>
+    <t>oper_object</t>
+  </si>
+  <si>
+    <t>oper_table</t>
+  </si>
+  <si>
+    <t>oper_id</t>
+  </si>
+  <si>
+    <t>oper_type</t>
+  </si>
+  <si>
+    <t>oper_remark</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>sys_role</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>sys_role_menu</t>
+  </si>
+  <si>
+    <t>roleid</t>
+  </si>
+  <si>
+    <t>menuid</t>
+  </si>
+  <si>
+    <t>sys_user</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>realname</t>
+  </si>
+  <si>
+    <t>departid</t>
+  </si>
+  <si>
+    <t>usertype</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>thirdid</t>
+  </si>
+  <si>
+    <t>endtime</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>title_url</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>'default'</t>
+  </si>
+  <si>
+    <t>back_site_id</t>
+  </si>
+  <si>
+    <t>create_site_id</t>
+  </si>
+  <si>
+    <t>invite_code</t>
+  </si>
+  <si>
+    <t>sys_user_role</t>
+  </si>
+  <si>
+    <t>tb_advice_feedback</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>telphone</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>varchar(2000)</t>
+  </si>
+  <si>
+    <t>is_read</t>
+  </si>
+  <si>
+    <t>tb_article</t>
+  </si>
+  <si>
+    <t>folder_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>longtext</t>
+  </si>
+  <si>
+    <t>count_view</t>
+  </si>
+  <si>
+    <t>count_comment</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>'1'</t>
+  </si>
+  <si>
+    <t>is_comment</t>
+  </si>
+  <si>
+    <t>is_recommend</t>
+  </si>
+  <si>
+    <t>jump_url</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>image_net_url</t>
+  </si>
+  <si>
+    <t>file_url</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>approve_status</t>
+  </si>
+  <si>
+    <t>publish_time</t>
+  </si>
+  <si>
+    <t>publish_user</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>article_id</t>
+  </si>
+  <si>
+    <t>tb_comment</t>
+  </si>
+  <si>
+    <t>fatherId</t>
+  </si>
+  <si>
+    <t>reply_userid</t>
+  </si>
+  <si>
+    <t>tb_contact</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>tb_error</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>tb_folder</t>
+  </si>
+  <si>
+    <t>material_type</t>
+  </si>
+  <si>
+    <t>site_id</t>
+  </si>
+  <si>
+    <t>seo_title</t>
+  </si>
+  <si>
+    <t>seo_keywords</t>
+  </si>
+  <si>
+    <t>seo_description</t>
+  </si>
+  <si>
+    <t>tb_folder_notice</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>tb_folder_roll_picture</t>
+  </si>
+  <si>
+    <t>tb_friendlylink</t>
+  </si>
+  <si>
+    <t>tb_image</t>
+  </si>
+  <si>
+    <t>album_id</t>
+  </si>
+  <si>
+    <t>album_name</t>
+  </si>
+  <si>
+    <t>linkurl</t>
+  </si>
+  <si>
+    <t>varchar(400)</t>
+  </si>
+  <si>
+    <t>cdnurl</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>tb_image_album</t>
+  </si>
+  <si>
+    <t>tb_image_tags</t>
+  </si>
+  <si>
+    <t>image_id</t>
+  </si>
+  <si>
+    <t>tagname</t>
+  </si>
+  <si>
+    <t>tb_pageview</t>
+  </si>
+  <si>
+    <t>create_day</t>
+  </si>
+  <si>
+    <t>tb_site</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>template_mobile</t>
+  </si>
+  <si>
+    <t>domain_pc</t>
+  </si>
+  <si>
+    <t>domain_mobile</t>
+  </si>
+  <si>
+    <t>domain_others</t>
+  </si>
+  <si>
+    <t>site_title</t>
+  </si>
+  <si>
+    <t>site_folder_id</t>
+  </si>
+  <si>
+    <t>site_article_id</t>
+  </si>
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>db_url</t>
+  </si>
+  <si>
+    <t>db_user</t>
+  </si>
+  <si>
+    <t>db_pwd</t>
+  </si>
+  <si>
+    <t>db_driver</t>
+  </si>
+  <si>
+    <t>int(2)</t>
+  </si>
+  <si>
+    <t>site_defalut</t>
+  </si>
+  <si>
+    <t>tb_tags</t>
+  </si>
+  <si>
+    <t>tb_video</t>
+  </si>
+  <si>
+    <t>video_url</t>
+  </si>
+  <si>
+    <t>video_net_url</t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>tb_video_album</t>
+  </si>
+  <si>
+    <t>video_id</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>键</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>排序号</t>
+  </si>
+  <si>
+    <t>系统配置表</t>
+  </si>
+  <si>
+    <t>上级机构</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>机构编码</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>联系人电话</t>
+  </si>
+  <si>
+    <t>机构描述</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>数据字典主表</t>
+  </si>
+  <si>
+    <t>数据字典</t>
+  </si>
+  <si>
+    <t>数据字典类型</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>文件路径</t>
+  </si>
+  <si>
+    <t>实际路径</t>
+  </si>
+  <si>
+    <t>后缀</t>
+  </si>
+  <si>
+    <t>原名称</t>
+  </si>
+  <si>
+    <t>大小</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>业务类型</t>
+  </si>
+  <si>
+    <t>菜单</t>
+  </si>
+  <si>
+    <t>父id</t>
+  </si>
+  <si>
+    <t>菜单key</t>
+  </si>
+  <si>
+    <t>链接地址</t>
+  </si>
+  <si>
+    <t>状态//radio/2,隐藏,1,显示</t>
+  </si>
+  <si>
+    <t>类型//select/1,根目录,2,a标签,3,a标签_blank,4,外部url</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>说明//textarea</t>
+  </si>
+  <si>
+    <t>角色和菜单关联</t>
+  </si>
+  <si>
+    <t>角色id</t>
+  </si>
+  <si>
+    <t>菜单id</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+  </si>
+  <si>
+    <t>类型//select/1,管理员,2,普通用户,3,前台用户,4,第三方用户,5,API用户</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>第三方ID</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>头像地址</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>主题</t>
+  </si>
+  <si>
+    <t>后台选择站点ID</t>
+  </si>
+  <si>
+    <t>创建站点ID</t>
+  </si>
+  <si>
+    <t>用户和角色关联</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>意见反馈</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>意见反馈内容</t>
+  </si>
+  <si>
+    <t>是否已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章</t>
+  </si>
+  <si>
+    <t>目录id</t>
+  </si>
+  <si>
+    <t>文章名称</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>浏览数</t>
+  </si>
+  <si>
+    <t>评论数</t>
+  </si>
+  <si>
+    <t>类型：1 正常 2 预览展示概述 3 程序调用处理</t>
+  </si>
+  <si>
+    <t>是否评论：2 否 1 是</t>
+  </si>
+  <si>
+    <t>是否推荐：2 否 1 是</t>
+  </si>
+  <si>
+    <t>跳转地址</t>
+  </si>
+  <si>
+    <t>图片路径</t>
+  </si>
+  <si>
+    <t>网络图片路径</t>
+  </si>
+  <si>
+    <t>审核状态</t>
+  </si>
+  <si>
+    <t>tb_articlelike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢的文章</t>
+  </si>
+  <si>
+    <t>文章ID</t>
+  </si>
+  <si>
+    <t>创建者</t>
+  </si>
+  <si>
+    <t>评论</t>
+  </si>
+  <si>
+    <t>父评论ID</t>
+  </si>
+  <si>
+    <t>状态//select/11,评论未读,12,评论已读,21,回复未读,22,回复已读</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>异常数据</t>
+  </si>
+  <si>
+    <t>IP地址</t>
+  </si>
+  <si>
+    <t>父ID</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
+    <t>URL KEY</t>
+  </si>
+  <si>
+    <t>模板路径</t>
+  </si>
+  <si>
+    <t>类型 1 普通目录 2 a标签 3 a标签_blank 4 直接加载url信息</t>
+  </si>
+  <si>
+    <t>素材类型</t>
+  </si>
+  <si>
+    <t>站点ID</t>
+  </si>
+  <si>
+    <t>SEO title</t>
+  </si>
+  <si>
+    <t>SEO keywords</t>
+  </si>
+  <si>
+    <t>SEO description</t>
+  </si>
+  <si>
+    <t>栏目公告</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>是否已删除</t>
+  </si>
+  <si>
+    <t>栏目轮播图</t>
+  </si>
+  <si>
+    <t>tb_video_tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频标签</t>
+  </si>
+  <si>
+    <t>标签内容</t>
+  </si>
+  <si>
+    <t>视频ID</t>
+  </si>
+  <si>
+    <t>专辑</t>
+  </si>
+  <si>
+    <t>专辑名称</t>
+  </si>
+  <si>
+    <t>视频</t>
+  </si>
+  <si>
+    <t>专辑ID</t>
+  </si>
+  <si>
+    <t>视频名称</t>
+  </si>
+  <si>
+    <t>点播视频路径</t>
+  </si>
+  <si>
+    <t>网络视频路径</t>
+  </si>
+  <si>
+    <t>缩略图</t>
+  </si>
+  <si>
+    <t>扩展名</t>
+  </si>
+  <si>
+    <t>分辨率</t>
+  </si>
+  <si>
+    <t>状态//ra dio/2,隐藏,1,显示</t>
+  </si>
+  <si>
+    <t>是否评论//radio/2,否,1,是</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>站点</t>
+  </si>
+  <si>
+    <t>模板名称</t>
+  </si>
+  <si>
+    <t>pc端域名</t>
+  </si>
+  <si>
+    <t>移动端域名</t>
+  </si>
+  <si>
+    <t>其他域名</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>默认标题ID</t>
+  </si>
+  <si>
+    <t>默认文章ID</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>数据库用户</t>
+  </si>
+  <si>
+    <t>数据库密码</t>
+  </si>
+  <si>
+    <t>数据库驱动</t>
+  </si>
+  <si>
+    <t>状态//radio/2,禁用,1,启用</t>
+  </si>
+  <si>
+    <t>默认站点：1,是,2,否</t>
+  </si>
+  <si>
+    <t>访问量统计</t>
+  </si>
+  <si>
+    <t>创建时间到天</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>图片ID</t>
+  </si>
+  <si>
+    <t>相册</t>
+  </si>
+  <si>
+    <t>相册名称</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>相册ID</t>
+  </si>
+  <si>
+    <t>图片名称</t>
+  </si>
+  <si>
+    <t>CDN地址</t>
+  </si>
+  <si>
+    <t>友情链接表</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>是否显示//radio/1,显示,2,不显示</t>
+  </si>
+  <si>
+    <t>类型//select/1,见数据字典</t>
+  </si>
+  <si>
+    <t>备注//textarea</t>
+  </si>
+  <si>
+    <t>题目</t>
+  </si>
+  <si>
+    <t>上传文件表</t>
+    <rPh sb="0" eb="1">
+      <t>hhwf</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yywr</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请码</t>
+    <rPh sb="0" eb="1">
+      <t>ryyg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dcg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,6 +1072,23 @@
       <color theme="1"/>
       <name val="-webkit-standard"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <sz val="16.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,12 +1110,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -444,160 +1396,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>20</v>
@@ -606,18 +1511,5307 @@
         <v>13</v>
       </c>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="4">
+        <v>9</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="4"/>
+      <c r="E122" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="4"/>
+      <c r="E128" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="4"/>
+      <c r="E129" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="4"/>
+      <c r="E130" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="4">
+        <v>2</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="4">
+        <v>10</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="4"/>
+      <c r="E135" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="4">
+        <v>0</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="4"/>
+      <c r="E146" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="4"/>
+      <c r="E152" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="4"/>
+      <c r="E153" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="4"/>
+      <c r="E159" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" s="4"/>
+      <c r="E160" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="4"/>
+      <c r="E164" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="4"/>
+      <c r="E165" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="4"/>
+      <c r="E166" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="4">
+        <v>1</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="4"/>
+      <c r="E175" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" s="4"/>
+      <c r="E176" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="4">
+        <v>0</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="4">
+        <v>0</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" s="4">
+        <v>1</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" s="4">
+        <v>1</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="4">
+        <v>2</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="4">
+        <v>1</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="4"/>
+      <c r="E184" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="4"/>
+      <c r="E185" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="4"/>
+      <c r="E186" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" s="4"/>
+      <c r="E189" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" s="4"/>
+      <c r="E202" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" s="4">
+        <v>0</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="4"/>
+      <c r="E210" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211" s="4"/>
+      <c r="E211" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" s="4"/>
+      <c r="E212" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="4">
+        <v>11</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" s="4"/>
+    </row>
+    <row r="235" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" s="4"/>
+      <c r="E235" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="4"/>
+      <c r="E236" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D237" s="4"/>
+      <c r="E237" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" s="4"/>
+      <c r="E238" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D239" s="4"/>
+      <c r="E239" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" s="4"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D241" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D246" s="4"/>
+      <c r="E246" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247" s="4">
+        <v>0</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D248" s="4"/>
+      <c r="E248" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249" s="4"/>
+      <c r="E249" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" s="4"/>
+      <c r="E250" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D251" s="4"/>
+      <c r="E251" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D252" s="4">
+        <v>1</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" s="4">
+        <v>1</v>
+      </c>
+      <c r="E253" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254" s="4">
+        <v>1</v>
+      </c>
+      <c r="E254" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255" s="4"/>
+      <c r="E255" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" s="4"/>
+      <c r="E256" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D257" s="4"/>
+      <c r="E257" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" s="4"/>
+      <c r="E258" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" s="4"/>
+      <c r="E259" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260" s="4"/>
+      <c r="E260" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D261" s="4"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D262" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D263" s="4"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D264" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D270" s="4"/>
+      <c r="E270" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" s="4">
+        <v>0</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D272" s="4"/>
+      <c r="E272" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" s="4"/>
+      <c r="E273" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D274" s="4"/>
+      <c r="E274" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D275" s="4"/>
+    </row>
+    <row r="276" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D276" s="4">
+        <v>1</v>
+      </c>
+      <c r="E276" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A277" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D277" s="4">
+        <v>0</v>
+      </c>
+      <c r="E277" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D279" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280" s="4"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D281" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D286" s="4"/>
+    </row>
+    <row r="287" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" s="4"/>
+      <c r="E287" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288" s="4"/>
+      <c r="E288" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D289" s="4"/>
+      <c r="E289" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D290" s="4">
+        <v>1</v>
+      </c>
+      <c r="E290" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A291" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291" s="4">
+        <v>1</v>
+      </c>
+      <c r="E291" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A292" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D292" s="4"/>
+      <c r="E292" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D293" s="4"/>
+      <c r="E293" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D294" s="4"/>
+      <c r="E294" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" s="4">
+        <v>0</v>
+      </c>
+      <c r="E295" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D296" s="4"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D297" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298" s="4"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D299" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" s="4"/>
+    </row>
+    <row r="305" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A305" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305" s="4"/>
+      <c r="E305" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A306" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" s="4"/>
+      <c r="E306" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A307" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" s="4"/>
+      <c r="E307" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A308" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D308" s="4">
+        <v>0</v>
+      </c>
+      <c r="E308" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A309" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D309" s="4">
+        <v>21</v>
+      </c>
+      <c r="E309" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A310" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D310" s="4"/>
+      <c r="E310" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A311" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D311" s="4">
+        <v>0</v>
+      </c>
+      <c r="E311" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D312" s="4"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D313" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318" s="4"/>
+    </row>
+    <row r="319" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A319" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D319" s="4">
+        <v>1</v>
+      </c>
+      <c r="E319" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A320" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D320" s="4"/>
+      <c r="E320" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A321" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D321" s="4"/>
+      <c r="E321" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A322" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322" s="4"/>
+      <c r="E322" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A323" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D323" s="4"/>
+      <c r="E323" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A324" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D324" s="4"/>
+      <c r="E324" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A325" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D325" s="4"/>
+      <c r="E325" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A326" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D326" s="4"/>
+      <c r="E326" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D327" s="4"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" s="4"/>
+    </row>
+    <row r="329" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A329" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D329" s="4">
+        <v>1</v>
+      </c>
+      <c r="E329" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A330" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330" s="4">
+        <v>1</v>
+      </c>
+      <c r="E330" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A331" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D331" s="4">
+        <v>2</v>
+      </c>
+      <c r="E331" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D332" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D333" s="4"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D334" s="4"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D336" s="4"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D337" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D338" s="4"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D339" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D344" s="4"/>
+    </row>
+    <row r="345" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A345" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D345" s="4">
+        <v>0</v>
+      </c>
+      <c r="E345" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A346" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D346" s="4"/>
+      <c r="E346" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A347" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D347" s="4"/>
+      <c r="E347" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A348" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D348" s="4">
+        <v>1</v>
+      </c>
+      <c r="E348" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A349" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D349" s="4">
+        <v>1</v>
+      </c>
+      <c r="E349" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350" s="4"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D351" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352" s="4"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D353" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D358" s="4"/>
+    </row>
+    <row r="359" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A359" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D359" s="4"/>
+      <c r="E359" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A360" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D360" s="4"/>
+      <c r="E360" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D361" s="4"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D362" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B364" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D367" s="4"/>
+    </row>
+    <row r="368" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A368" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D368" s="4"/>
+      <c r="E368" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A369" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D369" s="4"/>
+      <c r="E369" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A370" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D370" s="4"/>
+      <c r="E370" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A371" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D371" s="4"/>
+      <c r="E371" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D376" s="4"/>
+    </row>
+    <row r="377" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A377" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D377" s="4"/>
+      <c r="E377" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A378" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D378" s="4"/>
+      <c r="E378" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D379" s="4"/>
+    </row>
+    <row r="380" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A380" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D380" s="4"/>
+      <c r="E380" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A381" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D381" s="4"/>
+      <c r="E381" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A382" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D382" s="4"/>
+      <c r="E382" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A383" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D383" s="4"/>
+      <c r="E383" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A384" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D384" s="4"/>
+      <c r="E384" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A385" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D385" s="4"/>
+      <c r="E385" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A386" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D386" s="4"/>
+      <c r="E386" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A387" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D387" s="4"/>
+      <c r="E387" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A388" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D388" s="4"/>
+      <c r="E388" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A389" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D389" s="4"/>
+      <c r="E389" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A390" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D390" s="4"/>
+      <c r="E390" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A391" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D391" s="4">
+        <v>10</v>
+      </c>
+      <c r="E391" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A392" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D392" s="4">
+        <v>1</v>
+      </c>
+      <c r="E392" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A393" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D393" s="4">
+        <v>2</v>
+      </c>
+      <c r="E393" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D394" s="4"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D395" s="4"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D396" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D397" s="4"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D398" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C403" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D403" s="4"/>
+    </row>
+    <row r="404" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A404" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D404" s="4"/>
+      <c r="E404" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A405" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D405" s="4"/>
+      <c r="E405" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D406" s="4"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D407" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D412" s="4"/>
+    </row>
+    <row r="413" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A413" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D413" s="4">
+        <v>1</v>
+      </c>
+      <c r="E413" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A414" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C414" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D414" s="4"/>
+      <c r="E414" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A415" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D415" s="4"/>
+      <c r="E415" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A416" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C416" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D416" s="4"/>
+      <c r="E416" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A417" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C417" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D417" s="4"/>
+      <c r="E417" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A418" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C418" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D418" s="4"/>
+      <c r="E418" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A419" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C419" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D419" s="4"/>
+      <c r="E419" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A420" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C420" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D420" s="4"/>
+      <c r="E420" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A421" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C421" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D421" s="4">
+        <v>1</v>
+      </c>
+      <c r="E421" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A422" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D422" s="4">
+        <v>1</v>
+      </c>
+      <c r="E422" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A423" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C423" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D423" s="4">
+        <v>2</v>
+      </c>
+      <c r="E423" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D424" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C425" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D425" s="4"/>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D426" s="4"/>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C427" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D427" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C428" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D428" s="4"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C429" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D429" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D430" s="4"/>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D431" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C436" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D436" s="4"/>
+    </row>
+    <row r="437" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A437" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C437" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D437" s="4">
+        <v>0</v>
+      </c>
+      <c r="E437" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A438" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C438" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D438" s="4"/>
+      <c r="E438" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A439" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C439" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D439" s="4"/>
+      <c r="E439" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A440" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C440" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D440" s="4">
+        <v>1</v>
+      </c>
+      <c r="E440" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A441" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C441" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D441" s="4">
+        <v>1</v>
+      </c>
+      <c r="E441" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C442" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D442" s="4"/>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C443" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D443" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C444" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D444" s="4"/>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C445" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D445" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B447" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C450" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D450" s="4"/>
+    </row>
+    <row r="451" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A451" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C451" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D451" s="4"/>
+      <c r="E451" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A452" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C452" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D452" s="4"/>
+      <c r="E452" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C453" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D453" s="4"/>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C454" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D454" s="4">
         <v>0</v>
       </c>
     </row>
